--- a/rdm/daily/6月问题.xlsx
+++ b/rdm/daily/6月问题.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dong xiao bin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\python\rdm-202505\rdm-20250521\rdm\daily\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F65310C-6B46-4E3C-B9B0-1F7DB1BC65D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10F9EAF-18F1-4107-97C1-EA7C441090E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -752,7 +752,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
